--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.67312181579038</v>
+        <v>5.088421</v>
       </c>
       <c r="H2">
-        <v>4.67312181579038</v>
+        <v>10.176842</v>
       </c>
       <c r="I2">
-        <v>0.03047834493779559</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J2">
-        <v>0.03047834493779559</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.90659082210106</v>
+        <v>1.9078655</v>
       </c>
       <c r="N2">
-        <v>1.90659082210106</v>
+        <v>3.815731</v>
       </c>
       <c r="O2">
-        <v>0.01300710905667956</v>
+        <v>0.01269552586568416</v>
       </c>
       <c r="P2">
-        <v>0.01300710905667956</v>
+        <v>0.00849965309904553</v>
       </c>
       <c r="Q2">
-        <v>8.909731164546178</v>
+        <v>9.7080228753755</v>
       </c>
       <c r="R2">
-        <v>8.909731164546178</v>
+        <v>38.832091501502</v>
       </c>
       <c r="S2">
-        <v>0.0003964351564730048</v>
+        <v>0.0002723365965581006</v>
       </c>
       <c r="T2">
-        <v>0.0003964351564730048</v>
+        <v>0.0001249502793518183</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.67312181579038</v>
+        <v>5.088421</v>
       </c>
       <c r="H3">
-        <v>4.67312181579038</v>
+        <v>10.176842</v>
       </c>
       <c r="I3">
-        <v>0.03047834493779559</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J3">
-        <v>0.03047834493779559</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>62.7743674168353</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N3">
-        <v>62.7743674168353</v>
+        <v>4.007239</v>
       </c>
       <c r="O3">
-        <v>0.4282581419620247</v>
+        <v>0.008888468356299806</v>
       </c>
       <c r="P3">
-        <v>0.4282581419620247</v>
+        <v>0.008926242805105003</v>
       </c>
       <c r="Q3">
-        <v>293.3522658480538</v>
+        <v>6.796839693206334</v>
       </c>
       <c r="R3">
-        <v>293.3522658480538</v>
+        <v>40.781038159238</v>
       </c>
       <c r="S3">
-        <v>0.01305259937313802</v>
+        <v>0.0001906699451743124</v>
       </c>
       <c r="T3">
-        <v>0.01305259937313802</v>
+        <v>0.0001312214179876676</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.67312181579038</v>
+        <v>5.088421</v>
       </c>
       <c r="H4">
-        <v>4.67312181579038</v>
+        <v>10.176842</v>
       </c>
       <c r="I4">
-        <v>0.03047834493779559</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J4">
-        <v>0.03047834493779559</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>80.1811582375426</v>
+        <v>64.66363666666668</v>
       </c>
       <c r="N4">
-        <v>80.1811582375426</v>
+        <v>193.99091</v>
       </c>
       <c r="O4">
-        <v>0.5470104321268556</v>
+        <v>0.430291795659007</v>
       </c>
       <c r="P4">
-        <v>0.5470104321268556</v>
+        <v>0.4321204611562405</v>
       </c>
       <c r="Q4">
-        <v>374.6963197752009</v>
+        <v>329.0358067510367</v>
       </c>
       <c r="R4">
-        <v>374.6963197752009</v>
+        <v>1974.21484050622</v>
       </c>
       <c r="S4">
-        <v>0.01667197263493493</v>
+        <v>0.009230354409610952</v>
       </c>
       <c r="T4">
-        <v>0.01667197263493493</v>
+        <v>0.006352444235773811</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.67312181579038</v>
+        <v>5.088421</v>
       </c>
       <c r="H5">
-        <v>4.67312181579038</v>
+        <v>10.176842</v>
       </c>
       <c r="I5">
-        <v>0.03047834493779559</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J5">
-        <v>0.03047834493779559</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.71855827553021</v>
+        <v>80.62584666666667</v>
       </c>
       <c r="N5">
-        <v>1.71855827553021</v>
+        <v>241.87754</v>
       </c>
       <c r="O5">
-        <v>0.01172431685444028</v>
+        <v>0.5365092674506414</v>
       </c>
       <c r="P5">
-        <v>0.01172431685444028</v>
+        <v>0.5387893387795181</v>
       </c>
       <c r="Q5">
-        <v>8.03103216908732</v>
+        <v>410.2582513214467</v>
       </c>
       <c r="R5">
-        <v>8.03103216908732</v>
+        <v>2461.54950792868</v>
       </c>
       <c r="S5">
-        <v>0.0003573377732496415</v>
+        <v>0.01150886615215553</v>
       </c>
       <c r="T5">
-        <v>0.0003573377732496415</v>
+        <v>0.007920544239604574</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>118.955212101526</v>
+        <v>5.088421</v>
       </c>
       <c r="H6">
-        <v>118.955212101526</v>
+        <v>10.176842</v>
       </c>
       <c r="I6">
-        <v>0.775832115980427</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J6">
-        <v>0.775832115980427</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.90659082210106</v>
+        <v>1.745477</v>
       </c>
       <c r="N6">
-        <v>1.90659082210106</v>
+        <v>5.236431</v>
       </c>
       <c r="O6">
-        <v>0.01300710905667956</v>
+        <v>0.01161494266836776</v>
       </c>
       <c r="P6">
-        <v>0.01300710905667956</v>
+        <v>0.01166430416009097</v>
       </c>
       <c r="Q6">
-        <v>226.7989156338544</v>
+        <v>8.881721821817001</v>
       </c>
       <c r="R6">
-        <v>226.7989156338544</v>
+        <v>53.290330930902</v>
       </c>
       <c r="S6">
-        <v>0.01009133294223188</v>
+        <v>0.0002491565917777977</v>
       </c>
       <c r="T6">
-        <v>0.01009133294223188</v>
+        <v>0.000171472652620565</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>118.955212101526</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H7">
-        <v>118.955212101526</v>
+        <v>380.699402</v>
       </c>
       <c r="I7">
-        <v>0.775832115980427</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J7">
-        <v>0.775832115980427</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>62.7743674168353</v>
+        <v>1.9078655</v>
       </c>
       <c r="N7">
-        <v>62.7743674168353</v>
+        <v>3.815731</v>
       </c>
       <c r="O7">
-        <v>0.4282581419620247</v>
+        <v>0.01269552586568416</v>
       </c>
       <c r="P7">
-        <v>0.4282581419620247</v>
+        <v>0.00849965309904553</v>
       </c>
       <c r="Q7">
-        <v>7467.338190608765</v>
+        <v>242.1077516488104</v>
       </c>
       <c r="R7">
-        <v>7467.338190608765</v>
+        <v>1452.646509892862</v>
       </c>
       <c r="S7">
-        <v>0.3322564204642437</v>
+        <v>0.00679178468476987</v>
       </c>
       <c r="T7">
-        <v>0.3322564204642437</v>
+        <v>0.004674190345980626</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>118.955212101526</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H8">
-        <v>118.955212101526</v>
+        <v>380.699402</v>
       </c>
       <c r="I8">
-        <v>0.775832115980427</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J8">
-        <v>0.775832115980427</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>80.1811582375426</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N8">
-        <v>80.1811582375426</v>
+        <v>4.007239</v>
       </c>
       <c r="O8">
-        <v>0.5470104321268556</v>
+        <v>0.008888468356299806</v>
       </c>
       <c r="P8">
-        <v>0.5470104321268556</v>
+        <v>0.008926242805105003</v>
       </c>
       <c r="Q8">
-        <v>9537.966684692899</v>
+        <v>169.5059434412309</v>
       </c>
       <c r="R8">
-        <v>9537.966684692899</v>
+        <v>1525.553490971078</v>
       </c>
       <c r="S8">
-        <v>0.4243882610203462</v>
+        <v>0.004755105372716706</v>
       </c>
       <c r="T8">
-        <v>0.4243882610203462</v>
+        <v>0.004908783624379459</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>118.955212101526</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H9">
-        <v>118.955212101526</v>
+        <v>380.699402</v>
       </c>
       <c r="I9">
-        <v>0.775832115980427</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J9">
-        <v>0.775832115980427</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.71855827553021</v>
+        <v>64.66363666666668</v>
       </c>
       <c r="N9">
-        <v>1.71855827553021</v>
+        <v>193.99091</v>
       </c>
       <c r="O9">
-        <v>0.01172431685444028</v>
+        <v>0.430291795659007</v>
       </c>
       <c r="P9">
-        <v>0.01172431685444028</v>
+        <v>0.4321204611562405</v>
       </c>
       <c r="Q9">
-        <v>204.4314641745289</v>
+        <v>8205.80260338176</v>
       </c>
       <c r="R9">
-        <v>204.4314641745289</v>
+        <v>73852.22343043583</v>
       </c>
       <c r="S9">
-        <v>0.009096101553605388</v>
+        <v>0.2301952088206376</v>
       </c>
       <c r="T9">
-        <v>0.009096101553605388</v>
+        <v>0.2376347910085896</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.735257962743979</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H10">
-        <v>8.735257962743979</v>
+        <v>380.699402</v>
       </c>
       <c r="I10">
-        <v>0.05697180938222712</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J10">
-        <v>0.05697180938222712</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.90659082210106</v>
+        <v>80.62584666666667</v>
       </c>
       <c r="N10">
-        <v>1.90659082210106</v>
+        <v>241.87754</v>
       </c>
       <c r="O10">
-        <v>0.01300710905667956</v>
+        <v>0.5365092674506414</v>
       </c>
       <c r="P10">
-        <v>0.01300710905667956</v>
+        <v>0.5387893387795181</v>
       </c>
       <c r="Q10">
-        <v>16.65456266045287</v>
+        <v>10231.40387058123</v>
       </c>
       <c r="R10">
-        <v>16.65456266045287</v>
+        <v>92082.63483523109</v>
       </c>
       <c r="S10">
-        <v>0.0007410385377909881</v>
+        <v>0.2870188651072472</v>
       </c>
       <c r="T10">
-        <v>0.0007410385377909881</v>
+        <v>0.2962949071560712</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,55 +1092,55 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.735257962743979</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H11">
-        <v>8.735257962743979</v>
+        <v>380.699402</v>
       </c>
       <c r="I11">
-        <v>0.05697180938222712</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J11">
-        <v>0.05697180938222712</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>62.7743674168353</v>
+        <v>1.745477</v>
       </c>
       <c r="N11">
-        <v>62.7743674168353</v>
+        <v>5.236431</v>
       </c>
       <c r="O11">
-        <v>0.4282581419620247</v>
+        <v>0.01161494266836776</v>
       </c>
       <c r="P11">
-        <v>0.4282581419620247</v>
+        <v>0.01166430416009097</v>
       </c>
       <c r="Q11">
-        <v>548.3502928341268</v>
+        <v>221.5006833682513</v>
       </c>
       <c r="R11">
-        <v>548.3502928341268</v>
+        <v>1993.506150314262</v>
       </c>
       <c r="S11">
-        <v>0.02439864123024723</v>
+        <v>0.006213700051821294</v>
       </c>
       <c r="T11">
-        <v>0.02439864123024723</v>
+        <v>0.006414518011776426</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.735257962743979</v>
+        <v>78.852752</v>
       </c>
       <c r="H12">
-        <v>8.735257962743979</v>
+        <v>236.558256</v>
       </c>
       <c r="I12">
-        <v>0.05697180938222712</v>
+        <v>0.332421519088239</v>
       </c>
       <c r="J12">
-        <v>0.05697180938222712</v>
+        <v>0.341712690759905</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>80.1811582375426</v>
+        <v>1.9078655</v>
       </c>
       <c r="N12">
-        <v>80.1811582375426</v>
+        <v>3.815731</v>
       </c>
       <c r="O12">
-        <v>0.5470104321268556</v>
+        <v>0.01269552586568416</v>
       </c>
       <c r="P12">
-        <v>0.5470104321268556</v>
+        <v>0.00849965309904553</v>
       </c>
       <c r="Q12">
-        <v>700.4031009565291</v>
+        <v>150.440445120856</v>
       </c>
       <c r="R12">
-        <v>700.4031009565291</v>
+        <v>902.642670725136</v>
       </c>
       <c r="S12">
-        <v>0.0311641740692209</v>
+        <v>0.004220265993894757</v>
       </c>
       <c r="T12">
-        <v>0.0311641740692209</v>
+        <v>0.002904439331000613</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.735257962743979</v>
+        <v>78.852752</v>
       </c>
       <c r="H13">
-        <v>8.735257962743979</v>
+        <v>236.558256</v>
       </c>
       <c r="I13">
-        <v>0.05697180938222712</v>
+        <v>0.332421519088239</v>
       </c>
       <c r="J13">
-        <v>0.05697180938222712</v>
+        <v>0.341712690759905</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>1.71855827553021</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N13">
-        <v>1.71855827553021</v>
+        <v>4.007239</v>
       </c>
       <c r="O13">
-        <v>0.01172431685444028</v>
+        <v>0.008888468356299806</v>
       </c>
       <c r="P13">
-        <v>0.01172431685444028</v>
+        <v>0.008926242805105003</v>
       </c>
       <c r="Q13">
-        <v>15.01204986076483</v>
+        <v>105.3272743572427</v>
       </c>
       <c r="R13">
-        <v>15.01204986076483</v>
+        <v>947.9454692151841</v>
       </c>
       <c r="S13">
-        <v>0.0006679555449680045</v>
+        <v>0.002954718153368924</v>
       </c>
       <c r="T13">
-        <v>0.0006679555449680045</v>
+        <v>0.003050210447308673</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,122 +1278,122 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.66874455321943</v>
+        <v>78.852752</v>
       </c>
       <c r="H14">
-        <v>6.66874455321943</v>
+        <v>236.558256</v>
       </c>
       <c r="I14">
-        <v>0.04349390082413048</v>
+        <v>0.332421519088239</v>
       </c>
       <c r="J14">
-        <v>0.04349390082413048</v>
+        <v>0.341712690759905</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.90659082210106</v>
+        <v>64.66363666666668</v>
       </c>
       <c r="N14">
-        <v>1.90659082210106</v>
+        <v>193.99091</v>
       </c>
       <c r="O14">
-        <v>0.01300710905667956</v>
+        <v>0.430291795659007</v>
       </c>
       <c r="P14">
-        <v>0.01300710905667956</v>
+        <v>0.4321204611562405</v>
       </c>
       <c r="Q14">
-        <v>12.7145671601046</v>
+        <v>5098.905705494773</v>
       </c>
       <c r="R14">
-        <v>12.7145671601046</v>
+        <v>45890.15134945296</v>
       </c>
       <c r="S14">
-        <v>0.0005657299113198703</v>
+        <v>0.1430382523641732</v>
       </c>
       <c r="T14">
-        <v>0.0005657299113198703</v>
+        <v>0.1476610455141099</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.66874455321943</v>
+        <v>78.852752</v>
       </c>
       <c r="H15">
-        <v>6.66874455321943</v>
+        <v>236.558256</v>
       </c>
       <c r="I15">
-        <v>0.04349390082413048</v>
+        <v>0.332421519088239</v>
       </c>
       <c r="J15">
-        <v>0.04349390082413048</v>
+        <v>0.341712690759905</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>62.7743674168353</v>
+        <v>80.62584666666667</v>
       </c>
       <c r="N15">
-        <v>62.7743674168353</v>
+        <v>241.87754</v>
       </c>
       <c r="O15">
-        <v>0.4282581419620247</v>
+        <v>0.5365092674506414</v>
       </c>
       <c r="P15">
-        <v>0.4282581419620247</v>
+        <v>0.5387893387795181</v>
       </c>
       <c r="Q15">
-        <v>418.6262207928156</v>
+        <v>6357.569891996694</v>
       </c>
       <c r="R15">
-        <v>418.6262207928156</v>
+        <v>57218.12902797024</v>
       </c>
       <c r="S15">
-        <v>0.01862661715362269</v>
+        <v>0.1783472256908605</v>
       </c>
       <c r="T15">
-        <v>0.01862661715362269</v>
+        <v>0.1841111547070991</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.66874455321943</v>
+        <v>78.852752</v>
       </c>
       <c r="H16">
-        <v>6.66874455321943</v>
+        <v>236.558256</v>
       </c>
       <c r="I16">
-        <v>0.04349390082413048</v>
+        <v>0.332421519088239</v>
       </c>
       <c r="J16">
-        <v>0.04349390082413048</v>
+        <v>0.341712690759905</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>80.1811582375426</v>
+        <v>1.745477</v>
       </c>
       <c r="N16">
-        <v>80.1811582375426</v>
+        <v>5.236431</v>
       </c>
       <c r="O16">
-        <v>0.5470104321268556</v>
+        <v>0.01161494266836776</v>
       </c>
       <c r="P16">
-        <v>0.5470104321268556</v>
+        <v>0.01166430416009097</v>
       </c>
       <c r="Q16">
-        <v>534.7076622674374</v>
+        <v>137.635665002704</v>
       </c>
       <c r="R16">
-        <v>534.7076622674374</v>
+        <v>1238.720985024336</v>
       </c>
       <c r="S16">
-        <v>0.02379161748469022</v>
+        <v>0.003861056885941614</v>
       </c>
       <c r="T16">
-        <v>0.02379161748469022</v>
+        <v>0.003985840760386639</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.66874455321943</v>
+        <v>9.584972333333333</v>
       </c>
       <c r="H17">
-        <v>6.66874455321943</v>
+        <v>28.754917</v>
       </c>
       <c r="I17">
-        <v>0.04349390082413048</v>
+        <v>0.04040760763131526</v>
       </c>
       <c r="J17">
-        <v>0.04349390082413048</v>
+        <v>0.04153699907496669</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.71855827553021</v>
+        <v>1.9078655</v>
       </c>
       <c r="N17">
-        <v>1.71855827553021</v>
+        <v>3.815731</v>
       </c>
       <c r="O17">
-        <v>0.01172431685444028</v>
+        <v>0.01269552586568416</v>
       </c>
       <c r="P17">
-        <v>0.01172431685444028</v>
+        <v>0.00849965309904553</v>
       </c>
       <c r="Q17">
-        <v>11.46062613933226</v>
+        <v>18.28683803322117</v>
       </c>
       <c r="R17">
-        <v>11.46062613933226</v>
+        <v>109.721028199327</v>
       </c>
       <c r="S17">
-        <v>0.0005099362744977071</v>
+        <v>0.0005129958278537794</v>
       </c>
       <c r="T17">
-        <v>0.0005099362744977071</v>
+        <v>0.0003530500829125919</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.46868406203987</v>
+        <v>9.584972333333333</v>
       </c>
       <c r="H18">
-        <v>2.46868406203987</v>
+        <v>28.754917</v>
       </c>
       <c r="I18">
-        <v>0.01610088659171058</v>
+        <v>0.04040760763131526</v>
       </c>
       <c r="J18">
-        <v>0.01610088659171058</v>
+        <v>0.04153699907496669</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>1.90659082210106</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N18">
-        <v>1.90659082210106</v>
+        <v>4.007239</v>
       </c>
       <c r="O18">
-        <v>0.01300710905667956</v>
+        <v>0.008888468356299806</v>
       </c>
       <c r="P18">
-        <v>0.01300710905667956</v>
+        <v>0.008926242805105003</v>
       </c>
       <c r="Q18">
-        <v>4.706770375352379</v>
+        <v>12.80309164935145</v>
       </c>
       <c r="R18">
-        <v>4.706770375352379</v>
+        <v>115.227824844163</v>
       </c>
       <c r="S18">
-        <v>0.0002094259878076092</v>
+        <v>0.0003591617417847242</v>
       </c>
       <c r="T18">
-        <v>0.0002094259878076092</v>
+        <v>0.0003707693391385746</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,57 +1591,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.46868406203987</v>
+        <v>9.584972333333333</v>
       </c>
       <c r="H19">
-        <v>2.46868406203987</v>
+        <v>28.754917</v>
       </c>
       <c r="I19">
-        <v>0.01610088659171058</v>
+        <v>0.04040760763131526</v>
       </c>
       <c r="J19">
-        <v>0.01610088659171058</v>
+        <v>0.04153699907496669</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>62.7743674168353</v>
+        <v>64.66363666666668</v>
       </c>
       <c r="N19">
-        <v>62.7743674168353</v>
+        <v>193.99091</v>
       </c>
       <c r="O19">
-        <v>0.4282581419620247</v>
+        <v>0.430291795659007</v>
       </c>
       <c r="P19">
-        <v>0.4282581419620247</v>
+        <v>0.4321204611562405</v>
       </c>
       <c r="Q19">
-        <v>154.9700803465762</v>
+        <v>619.7991684227189</v>
       </c>
       <c r="R19">
-        <v>154.9700803465762</v>
+        <v>5578.192515804471</v>
       </c>
       <c r="S19">
-        <v>0.006895335775707248</v>
+        <v>0.01738706204596324</v>
       </c>
       <c r="T19">
-        <v>0.006895335775707248</v>
+        <v>0.01794898719532094</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,57 +1653,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.46868406203987</v>
+        <v>9.584972333333333</v>
       </c>
       <c r="H20">
-        <v>2.46868406203987</v>
+        <v>28.754917</v>
       </c>
       <c r="I20">
-        <v>0.01610088659171058</v>
+        <v>0.04040760763131526</v>
       </c>
       <c r="J20">
-        <v>0.01610088659171058</v>
+        <v>0.04153699907496669</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>80.1811582375426</v>
+        <v>80.62584666666667</v>
       </c>
       <c r="N20">
-        <v>80.1811582375426</v>
+        <v>241.87754</v>
       </c>
       <c r="O20">
-        <v>0.5470104321268556</v>
+        <v>0.5365092674506414</v>
       </c>
       <c r="P20">
-        <v>0.5470104321268556</v>
+        <v>0.5387893387795181</v>
       </c>
       <c r="Q20">
-        <v>197.9419474169183</v>
+        <v>772.7965096515757</v>
       </c>
       <c r="R20">
-        <v>197.9419474169183</v>
+        <v>6955.16858686418</v>
       </c>
       <c r="S20">
-        <v>0.008807352932157099</v>
+        <v>0.02167905596970989</v>
       </c>
       <c r="T20">
-        <v>0.008807352932157099</v>
+        <v>0.02237969226648676</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,57 +1715,57 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.46868406203987</v>
+        <v>9.584972333333333</v>
       </c>
       <c r="H21">
-        <v>2.46868406203987</v>
+        <v>28.754917</v>
       </c>
       <c r="I21">
-        <v>0.01610088659171058</v>
+        <v>0.04040760763131526</v>
       </c>
       <c r="J21">
-        <v>0.01610088659171058</v>
+        <v>0.04153699907496669</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.71855827553021</v>
+        <v>1.745477</v>
       </c>
       <c r="N21">
-        <v>1.71855827553021</v>
+        <v>5.236431</v>
       </c>
       <c r="O21">
-        <v>0.01172431685444028</v>
+        <v>0.01161494266836776</v>
       </c>
       <c r="P21">
-        <v>0.01172431685444028</v>
+        <v>0.01166430416009097</v>
       </c>
       <c r="Q21">
-        <v>4.242577424488153</v>
+        <v>16.73034875346967</v>
       </c>
       <c r="R21">
-        <v>4.242577424488153</v>
+        <v>150.573138781227</v>
       </c>
       <c r="S21">
-        <v>0.0001887718960386239</v>
+        <v>0.0004693320460036262</v>
       </c>
       <c r="T21">
-        <v>0.0001887718960386239</v>
+        <v>0.0004845001911078288</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,57 +1777,57 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.8249499708566</v>
+        <v>2.520605</v>
       </c>
       <c r="H22">
-        <v>11.8249499708566</v>
+        <v>7.561814999999999</v>
       </c>
       <c r="I22">
-        <v>0.07712294228370911</v>
+        <v>0.01062617755080267</v>
       </c>
       <c r="J22">
-        <v>0.07712294228370911</v>
+        <v>0.01092317890050141</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.90659082210106</v>
+        <v>1.9078655</v>
       </c>
       <c r="N22">
-        <v>1.90659082210106</v>
+        <v>3.815731</v>
       </c>
       <c r="O22">
-        <v>0.01300710905667956</v>
+        <v>0.01269552586568416</v>
       </c>
       <c r="P22">
-        <v>0.01300710905667956</v>
+        <v>0.00849965309904553</v>
       </c>
       <c r="Q22">
-        <v>22.54534108623939</v>
+        <v>4.8089753186275</v>
       </c>
       <c r="R22">
-        <v>22.54534108623939</v>
+        <v>28.853851911765</v>
       </c>
       <c r="S22">
-        <v>0.001003146521056208</v>
+        <v>0.0001349049119495677</v>
       </c>
       <c r="T22">
-        <v>0.001003146521056208</v>
+        <v>9.284323139307552E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.8249499708566</v>
+        <v>2.520605</v>
       </c>
       <c r="H23">
-        <v>11.8249499708566</v>
+        <v>7.561814999999999</v>
       </c>
       <c r="I23">
-        <v>0.07712294228370911</v>
+        <v>0.01062617755080267</v>
       </c>
       <c r="J23">
-        <v>0.07712294228370911</v>
+        <v>0.01092317890050141</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>62.7743674168353</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N23">
-        <v>62.7743674168353</v>
+        <v>4.007239</v>
       </c>
       <c r="O23">
-        <v>0.4282581419620247</v>
+        <v>0.008888468356299806</v>
       </c>
       <c r="P23">
-        <v>0.4282581419620247</v>
+        <v>0.008926242805105003</v>
       </c>
       <c r="Q23">
-        <v>742.303754156248</v>
+        <v>3.366888886531667</v>
       </c>
       <c r="R23">
-        <v>742.303754156248</v>
+        <v>30.301999978785</v>
       </c>
       <c r="S23">
-        <v>0.03302852796506573</v>
+        <v>9.445044290873293E-05</v>
       </c>
       <c r="T23">
-        <v>0.03302852796506573</v>
+        <v>9.750294706947546E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,489 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.8249499708566</v>
+        <v>2.520605</v>
       </c>
       <c r="H24">
-        <v>11.8249499708566</v>
+        <v>7.561814999999999</v>
       </c>
       <c r="I24">
-        <v>0.07712294228370911</v>
+        <v>0.01062617755080267</v>
       </c>
       <c r="J24">
-        <v>0.07712294228370911</v>
+        <v>0.01092317890050141</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>80.1811582375426</v>
+        <v>64.66363666666668</v>
       </c>
       <c r="N24">
-        <v>80.1811582375426</v>
+        <v>193.99091</v>
       </c>
       <c r="O24">
-        <v>0.5470104321268556</v>
+        <v>0.430291795659007</v>
       </c>
       <c r="P24">
-        <v>0.5470104321268556</v>
+        <v>0.4321204611562405</v>
       </c>
       <c r="Q24">
-        <v>948.1381847642779</v>
+        <v>162.9914859001833</v>
       </c>
       <c r="R24">
-        <v>948.1381847642779</v>
+        <v>1466.92337310165</v>
       </c>
       <c r="S24">
-        <v>0.04218705398550627</v>
+        <v>0.004572357019326312</v>
       </c>
       <c r="T24">
-        <v>0.04218705398550627</v>
+        <v>0.004720129103776783</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.520605</v>
+      </c>
+      <c r="H25">
+        <v>7.561814999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.01062617755080267</v>
+      </c>
+      <c r="J25">
+        <v>0.01092317890050141</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>80.62584666666667</v>
+      </c>
+      <c r="N25">
+        <v>241.87754</v>
+      </c>
+      <c r="O25">
+        <v>0.5365092674506414</v>
+      </c>
+      <c r="P25">
+        <v>0.5387893387795181</v>
+      </c>
+      <c r="Q25">
+        <v>203.2259122372333</v>
+      </c>
+      <c r="R25">
+        <v>1829.0332101351</v>
+      </c>
+      <c r="S25">
+        <v>0.005701042733581593</v>
+      </c>
+      <c r="T25">
+        <v>0.005885292337171536</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.520605</v>
+      </c>
+      <c r="H26">
+        <v>7.561814999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.01062617755080267</v>
+      </c>
+      <c r="J26">
+        <v>0.01092317890050141</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.745477</v>
+      </c>
+      <c r="N26">
+        <v>5.236431</v>
+      </c>
+      <c r="O26">
+        <v>0.01161494266836776</v>
+      </c>
+      <c r="P26">
+        <v>0.01166430416009097</v>
+      </c>
+      <c r="Q26">
+        <v>4.399658053584999</v>
+      </c>
+      <c r="R26">
+        <v>39.59692248226499</v>
+      </c>
+      <c r="S26">
+        <v>0.0001234224430364696</v>
+      </c>
+      <c r="T26">
+        <v>0.0001274112810905365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>14.2605715</v>
+      </c>
+      <c r="H27">
+        <v>28.521143</v>
+      </c>
+      <c r="I27">
+        <v>0.06011864799717386</v>
+      </c>
+      <c r="J27">
+        <v>0.04119930829249108</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.9078655</v>
+      </c>
+      <c r="N27">
+        <v>3.815731</v>
+      </c>
+      <c r="O27">
+        <v>0.01269552586568416</v>
+      </c>
+      <c r="P27">
+        <v>0.00849965309904553</v>
+      </c>
+      <c r="Q27">
+        <v>27.20725237513325</v>
+      </c>
+      <c r="R27">
+        <v>108.829009500533</v>
+      </c>
+      <c r="S27">
+        <v>0.0007632378506580818</v>
+      </c>
+      <c r="T27">
+        <v>0.000350179828406804</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>14.2605715</v>
+      </c>
+      <c r="H28">
+        <v>28.521143</v>
+      </c>
+      <c r="I28">
+        <v>0.06011864799717386</v>
+      </c>
+      <c r="J28">
+        <v>0.04119930829249108</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>1.335746333333333</v>
+      </c>
+      <c r="N28">
+        <v>4.007239</v>
+      </c>
+      <c r="O28">
+        <v>0.008888468356299806</v>
+      </c>
+      <c r="P28">
+        <v>0.008926242805105003</v>
+      </c>
+      <c r="Q28">
+        <v>19.04850609236284</v>
+      </c>
+      <c r="R28">
+        <v>114.291036554177</v>
+      </c>
+      <c r="S28">
+        <v>0.0005343627003464066</v>
+      </c>
+      <c r="T28">
+        <v>0.0003677550292211514</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>14.2605715</v>
+      </c>
+      <c r="H29">
+        <v>28.521143</v>
+      </c>
+      <c r="I29">
+        <v>0.06011864799717386</v>
+      </c>
+      <c r="J29">
+        <v>0.04119930829249108</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>64.66363666666668</v>
+      </c>
+      <c r="N29">
+        <v>193.99091</v>
+      </c>
+      <c r="O29">
+        <v>0.430291795659007</v>
+      </c>
+      <c r="P29">
+        <v>0.4321204611562405</v>
+      </c>
+      <c r="Q29">
+        <v>922.1404141350217</v>
+      </c>
+      <c r="R29">
+        <v>5532.84248481013</v>
+      </c>
+      <c r="S29">
+        <v>0.02586856099929571</v>
+      </c>
+      <c r="T29">
+        <v>0.01780306409866937</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>14.2605715</v>
+      </c>
+      <c r="H30">
+        <v>28.521143</v>
+      </c>
+      <c r="I30">
+        <v>0.06011864799717386</v>
+      </c>
+      <c r="J30">
+        <v>0.04119930829249108</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>80.62584666666667</v>
+      </c>
+      <c r="N30">
+        <v>241.87754</v>
+      </c>
+      <c r="O30">
+        <v>0.5365092674506414</v>
+      </c>
+      <c r="P30">
+        <v>0.5387893387795181</v>
+      </c>
+      <c r="Q30">
+        <v>1149.770651138037</v>
+      </c>
+      <c r="R30">
+        <v>6898.62390682822</v>
+      </c>
+      <c r="S30">
+        <v>0.03225421179708672</v>
+      </c>
+      <c r="T30">
+        <v>0.02219774807308478</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>24</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>11.8249499708566</v>
-      </c>
-      <c r="H25">
-        <v>11.8249499708566</v>
-      </c>
-      <c r="I25">
-        <v>0.07712294228370911</v>
-      </c>
-      <c r="J25">
-        <v>0.07712294228370911</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.71855827553021</v>
-      </c>
-      <c r="N25">
-        <v>1.71855827553021</v>
-      </c>
-      <c r="O25">
-        <v>0.01172431685444028</v>
-      </c>
-      <c r="P25">
-        <v>0.01172431685444028</v>
-      </c>
-      <c r="Q25">
-        <v>20.32186563014633</v>
-      </c>
-      <c r="R25">
-        <v>20.32186563014633</v>
-      </c>
-      <c r="S25">
-        <v>0.0009042138120809159</v>
-      </c>
-      <c r="T25">
-        <v>0.0009042138120809159</v>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>14.2605715</v>
+      </c>
+      <c r="H31">
+        <v>28.521143</v>
+      </c>
+      <c r="I31">
+        <v>0.06011864799717386</v>
+      </c>
+      <c r="J31">
+        <v>0.04119930829249108</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.745477</v>
+      </c>
+      <c r="N31">
+        <v>5.236431</v>
+      </c>
+      <c r="O31">
+        <v>0.01161494266836776</v>
+      </c>
+      <c r="P31">
+        <v>0.01166430416009097</v>
+      </c>
+      <c r="Q31">
+        <v>24.8914995601055</v>
+      </c>
+      <c r="R31">
+        <v>149.348997360633</v>
+      </c>
+      <c r="S31">
+        <v>0.0006982746497869566</v>
+      </c>
+      <c r="T31">
+        <v>0.0004805612631089742</v>
       </c>
     </row>
   </sheetData>
